--- a/Results/Results_ETHUSDT_horizon1.xlsx
+++ b/Results/Results_ETHUSDT_horizon1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -585,22 +585,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.37 (0.14)</t>
+          <t>0.34 (0.12)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.51 (0.77)</t>
+          <t>1.36 (0.62)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.16 (0.09)</t>
+          <t>0.15 (0.10)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>47.23 (6.60)</t>
+          <t>46.31 (5.61)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -610,31 +610,31 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>max\_depth: 12, max\_features: 2 \\</t>
+          <t>max\_depth: 8, max\_features: 2 \\</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0.24074314 0.29230423 0.68831132 0.25114664 0.43919964 0.38235326
- 0.44035942 0.20168069 0.3067051  0.48811395]</t>
+          <t>[0.22722351 0.24485534 0.55153723 0.24058623 0.44951571 0.37271697
+ 0.47744709 0.14587623 0.31852768 0.36613141]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[0.79562698 1.42469633 3.51224396 0.91275879 1.46874665 1.50312366
- 1.68388803 0.63429822 1.20622923 1.94984995]</t>
+          <t>[0.75094623 1.19342956 2.81432727 0.87437837 1.50324507 1.46524103
+ 1.82570736 0.45878974 1.25272582 1.46257099]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[0.10130861 0.06827428 0.34005465 0.0915456  0.31569585 0.12998437
- 0.23945798 0.09120994 0.10878521 0.11517354]</t>
+          <t>[0.08971528 0.05127964 0.2664375  0.08172972 0.32816576 0.12239594
+ 0.27353901 0.07282161 0.10400241 0.0831393 ]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[47.69230769 50.76923077 35.38461538 44.61538462 41.53846154 44.61538462
- 50.76923077 43.07692308 53.84615385 60.        ]</t>
+          <t>[46.15384615 53.84615385 43.07692308 46.15384615 33.84615385 41.53846154
+ 47.69230769 53.84615385 49.23076923 47.69230769]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Regression Tree &amp; 0.37 $\pm$ 0.14 &amp; 1.51 $\pm$ 0.77 &amp; 0.16 $\pm$ 9.48 &amp; 47.23 $\pm$ 6.60 &amp; "-"</t>
+          <t>Regression Tree &amp; 0.34 $\pm$ 0.12 &amp; 1.36 $\pm$ 0.62 &amp; 0.15 $\pm$ 9.58 &amp; 46.31 $\pm$ 5.61 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -659,12 +659,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.30 (0.17)</t>
+          <t>0.29 (0.16)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.20 (0.80)</t>
+          <t>1.18 (0.79)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>49.08 (5.94)</t>
+          <t>48.92 (5.99)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -684,31 +684,31 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>max\_depth: 4, max\_features: 6, n\_estimators: 100 \\</t>
+          <t>max\_depth: 4, max\_features: 8, n\_estimators: 200 \\</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0.13538789 0.12224374 0.61057598 0.24323752 0.44266448 0.37381341
- 0.44909698 0.09830763 0.14393112 0.3520738 ]</t>
+          <t>[0.12168308 0.12978817 0.60422682 0.2350384  0.44434524 0.34628486
+ 0.4441306  0.09547649 0.145896   0.34924014]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[0.44744063 0.59581827 3.11558408 0.88401414 1.48033358 1.4695514
- 1.71729954 0.30918356 0.56606144 1.40641562]</t>
+          <t>[0.40214786 0.63258999 3.08318624 0.85421552 1.48595428 1.36132998
+ 1.6983086  0.30027946 0.57378904 1.39509609]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[0.066785   0.0247377  0.29882887 0.07661548 0.32252563 0.12102825
- 0.24726719 0.04931367 0.0483494  0.07650912]</t>
+          <t>[0.0615768  0.0274677  0.2952878  0.07350101 0.32416532 0.11132609
+ 0.24286445 0.04821969 0.04933697 0.07590084]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[55.38461538 41.53846154 47.69230769 55.38461538 44.61538462 47.69230769
- 56.92307692 55.38461538 40.         46.15384615]</t>
+          <t>[49.23076923 40.         53.84615385 49.23076923 49.23076923 52.30769231
+ 50.76923077 60.         38.46153846 46.15384615]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Random Forest &amp; 0.30 $\pm$ 0.17 &amp; 1.20 $\pm$ 0.80 &amp; 0.13 $\pm$ 10.64 &amp; 49.08 $\pm$ 5.94 &amp; "-"</t>
+          <t>Random Forest &amp; 0.29 $\pm$ 0.16 &amp; 1.18 $\pm$ 0.79 &amp; 0.13 $\pm$ 10.61 &amp; 48.92 $\pm$ 5.99 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -838,19 +838,19 @@
       <c r="I6" t="inlineStr">
         <is>
           <t>[0.43268307 0.76088727 0.90822873 0.72143532 0.64772837 1.79806959
- 0.82758344 0.59130424 0.85566394 0.9536711 ]</t>
+ 0.82758344 0.59130429 0.85566258 0.95367281]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>[1.42996524 3.70857885 4.6344158  2.6219599  2.16609666 7.06864877
- 3.16459187 1.85968838 3.36520936 3.80959309]</t>
+ 3.16459187 1.85968852 3.365204   3.80959993]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>[0.25600005 0.20293725 0.46524899 0.41543691 0.66142574 0.72413981
- 0.58863739 0.34917816 0.34780729 0.26042731]</t>
+ 0.58863739 0.34917819 0.34780672 0.26042781]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -881,22 +881,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.29 (0.16)</t>
+          <t>0.33 (0.16)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.17 (0.77)</t>
+          <t>1.33 (0.79)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.13 (0.11)</t>
+          <t>0.15 (0.11)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>50.46 (4.66)</t>
+          <t>49.54 (4.17)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -906,31 +906,31 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>learning\_rate: 0.1, max\_depth: 2, max\_features: 4, n\_estimators: 100 \\</t>
+          <t>learning\_rate: 0.1, max\_depth: 20, max\_features: 2, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[0.11592343 0.15317344 0.59411177 0.24761419 0.44713183 0.30986108
- 0.44320598 0.08848826 0.15287038 0.33924896]</t>
+          <t>[0.18311114 0.1859919  0.63040411 0.24318026 0.45369395 0.41898758
+ 0.48328922 0.13983393 0.16602166 0.40107095]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[0.38311294 0.74657022 3.0315722  0.89992055 1.49527303 1.21813925
- 1.69477297 0.27830104 0.60121831 1.35518471]</t>
+          <t>[0.60516017 0.90652803 3.21676103 0.88380602 1.51721771 1.64714206
+ 1.84804706 0.43978634 0.65294051 1.60214264]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[0.05649811 0.03253889 0.29156632 0.07592203 0.32705417 0.09903533
- 0.2390889  0.04559153 0.05171411 0.0735593 ]</t>
+          <t>[0.10278136 0.03717216 0.31124014 0.07437778 0.33480043 0.13913851
+ 0.27422015 0.06968644 0.05734399 0.09231062]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[53.84615385 50.76923077 49.23076923 55.38461538 47.69230769 53.84615385
- 47.69230769 58.46153846 44.61538462 43.07692308]</t>
+          <t>[47.69230769 53.84615385 53.84615385 47.69230769 50.76923077 53.84615385
+ 49.23076923 52.30769231 46.15384615 40.        ]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>GBM \cite{friedman2001greedy} &amp; 0.29 $\pm$ 0.16 &amp; 1.17 $\pm$ 0.77 &amp; 0.13 $\pm$ 10.59 &amp; 50.46 $\pm$ 4.66 &amp; "-"</t>
+          <t>GBM \cite{friedman2001greedy} &amp; 0.33 $\pm$ 0.16 &amp; 1.33 $\pm$ 0.79 &amp; 0.15 $\pm$ 10.71 &amp; 49.54 $\pm$ 4.17 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1103,22 +1103,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.29 (0.26)</t>
+          <t>0.27 (0.26)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.28 (1.35)</t>
+          <t>1.17 (1.35)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.13 (0.13)</t>
+          <t>0.12 (0.12)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>48.46 (5.30)</t>
+          <t>46.77 (4.52)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1133,26 +1133,26 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[0.327569   0.66018152 0.87302079 0.38989718 0.07709511 0.15062026
- 0.1224749  0.07818635 0.11593537 0.14783608]</t>
+          <t>[0.33654889 0.64073776 0.8652623  0.1709775  0.07710317 0.11438785
+ 0.11602869 0.07819165 0.11606916 0.1476657 ]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[1.08257597 3.21773716 4.45476036 1.41702901 0.25781713 0.59212487
- 0.46833111 0.2459009  0.45595797 0.59055509]</t>
+          <t>[1.1122534  3.12296789 4.41517117 0.62139478 0.25784408 0.44968644
+ 0.4436815  0.24591757 0.45648413 0.58987447]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[0.19377843 0.17306804 0.4465687  0.2240882  0.05718028 0.04822505
- 0.06975082 0.0417212  0.03713697 0.03200263]</t>
+          <t>[0.20000576 0.16789293 0.44211084 0.09419011 0.0569925  0.03814232
+ 0.06688843 0.04177365 0.03721354 0.03217836]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[46.15384615 50.76923077 47.69230769 47.69230769 46.15384615 52.30769231
- 58.46153846 53.84615385 41.53846154 40.        ]</t>
+          <t>[46.15384615 46.15384615 47.69230769 44.61538462 46.15384615 46.15384615
+ 55.38461538 53.84615385 41.53846154 40.        ]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>MLP &amp; 0.29 $\pm$ 0.26 &amp; 1.28 $\pm$ 1.35 &amp; 0.13 $\pm$ 12.51 &amp; 48.46 $\pm$ 5.30 &amp; "-"</t>
+          <t>MLP &amp; 0.27 $\pm$ 0.26 &amp; 1.17 $\pm$ 1.35 &amp; 0.12 $\pm$ 12.13 &amp; 46.77 $\pm$ 4.52 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1177,22 +1177,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.21 (0.18)</t>
+          <t>0.20 (0.19)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.87 (0.90)</t>
+          <t>0.87 (0.96)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.09 (0.09)</t>
+          <t>0.09 (0.10)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>47.08 (4.47)</t>
+          <t>48.00 (5.23)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1207,26 +1207,26 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[0.44408883 0.23887349 0.6509451  0.07577468 0.06408296 0.14665436
- 0.11644845 0.0789727  0.11060418 0.14062614]</t>
+          <t>[0.40205768 0.21419681 0.69573299 0.0784956  0.0649453  0.14129547
+ 0.11411613 0.08045958 0.10993393 0.14041311]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[1.46765991 1.16427386 3.32157544 0.2753929  0.21430261 0.57653396
- 0.44528662 0.24837403 0.43499111 0.56175381]</t>
+          <t>[1.32875203 1.0439993  3.55011449 0.28528174 0.21718642 0.55546685
+ 0.43636804 0.25305037 0.43235514 0.56090283]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[0.218565   0.05613712 0.31879433 0.0312643  0.05078791 0.04928702
- 0.06688129 0.04176384 0.03533904 0.03045441]</t>
+          <t>[0.20977745 0.04860801 0.34445499 0.03327318 0.05119231 0.04842363
+ 0.06607006 0.04280289 0.03512449 0.03034996]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[46.15384615 50.76923077 52.30769231 49.23076923 47.69230769 46.15384615
- 47.69230769 52.30769231 40.         38.46153846]</t>
+          <t>[46.15384615 50.76923077 52.30769231 49.23076923 47.69230769 47.69230769
+ 50.76923077 56.92307692 40.         38.46153846]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>CNN &amp; 0.21 $\pm$ 0.18 &amp; 0.87 $\pm$ 0.90 &amp; 0.09 $\pm$ 9.28 &amp; 47.08 $\pm$ 4.47 &amp; "-"</t>
+          <t>CNN &amp; 0.20 $\pm$ 0.19 &amp; 0.87 $\pm$ 0.96 &amp; 0.09 $\pm$ 9.83 &amp; 48.00 $\pm$ 5.23 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1251,22 +1251,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.11 (0.65)</t>
+          <t>1.05 (0.66)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.42 (2.66)</t>
+          <t>4.19 (2.70)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.52 (0.21)</t>
+          <t>0.48 (0.23)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>46.31 (7.30)</t>
+          <t>46.00 (6.54)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1281,26 +1281,26 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[0.30028207 0.76200733 0.9068673  0.72626334 0.65547199 1.92993751
- 1.09372481 0.6912398  1.51422855 2.5451089 ]</t>
+          <t>[0.30028225 0.75804327 0.90655382 0.72576285 0.65589137 1.93040737
+ 1.09381882 0.39427839 1.18397006 2.53729537]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[ 0.99239594  3.71403809  4.62746883  2.6395067   2.19199243  7.58705363
-  4.18228842  2.1739919   5.95525398 10.16684815]</t>
+          <t>[ 0.99239653  3.69471717  4.62586928  2.63768774  2.1933949   7.58890076
+  4.1826479   1.2400299   4.65639246 10.13563578]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[0.17662153 0.20323725 0.46441917 0.41780425 0.66874993 0.77867778
- 0.7818625  0.36829654 0.61801124 0.70248024]</t>
+          <t>[0.17668054 0.20207919 0.46424676 0.41744667 0.66940349 0.77887333
+ 0.78193668 0.15505207 0.47628546 0.70028746]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[41.53846154 61.53846154 38.46153846 43.07692308 40.         49.23076923
- 47.69230769 40.         44.61538462 56.92307692]</t>
+          <t>[46.15384615 58.46153846 38.46153846 43.07692308 35.38461538 46.15384615
+ 47.69230769 44.61538462 44.61538462 55.38461538]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>RNN &amp; 1.11 $\pm$ 0.65 &amp; 4.42 $\pm$ 2.66 &amp; 0.52 $\pm$ 21.34 &amp; 46.31 $\pm$ 7.30 &amp; "-"</t>
+          <t>RNN &amp; 1.05 $\pm$ 0.66 &amp; 4.19 $\pm$ 2.70 &amp; 0.48 $\pm$ 23.32 &amp; 46.00 $\pm$ 6.54 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.46 (0.57)</t>
+          <t>1.45 (0.55)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.94 (2.91)</t>
+          <t>5.88 (2.85)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>45.85 (8.50)</t>
+          <t>45.23 (7.48)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1355,26 +1355,26 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[0.84756268 2.38530697 1.47484818 1.21369003 0.78047942 2.2333112
- 1.24974108 0.88131198 1.400893   2.15449297]</t>
+          <t>[0.84560453 2.33584694 1.47012232 1.19786375 0.77715566 2.22904694
+ 1.24909208 0.87784784 1.39451021 2.09929298]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[ 2.80109222 11.62603104  7.52570307  4.4109936   2.61003523  8.77968938
-  4.77887818  2.77178064  5.50952074  8.60646982]</t>
+          <t>[ 2.79462079 11.38496193  7.50158844  4.35347512  2.5989201   8.76292552
+  4.77639647  2.76088569  5.48441811  8.38596453]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[0.47548779 0.66548094 0.77394375 0.75515992 0.85970942 0.90479328
- 0.90452565 0.53930594 0.57374335 0.59384028]</t>
+          <t>[0.47413186 0.65150778 0.77138267 0.74440341 0.85471362 0.90302236
+ 0.90401703 0.52164162 0.57390031 0.57851652]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>[46.15384615 60.         36.92307692 40.         38.46153846 40.
- 47.69230769 63.07692308 41.53846154 44.61538462]</t>
+          <t>[46.15384615 49.23076923 38.46153846 43.07692308 32.30769231 46.15384615
+ 40.         61.53846154 50.76923077 44.61538462]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>LSTM &amp; 1.46 $\pm$ 0.57 &amp; 5.94 $\pm$ 2.91 &amp; 0.70 $\pm$ 14.91 &amp; 45.85 $\pm$ 8.50 &amp; "-"</t>
+          <t>LSTM &amp; 1.45 $\pm$ 0.55 &amp; 5.88 $\pm$ 2.85 &amp; 0.70 $\pm$ 15.15 &amp; 45.23 $\pm$ 7.48 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1399,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.47 (0.26)</t>
+          <t>0.46 (0.27)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.93 (1.32)</t>
+          <t>1.92 (1.33)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>49.08 (6.13)</t>
+          <t>45.69 (6.04)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1429,26 +1429,26 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[0.30031193 0.75339734 0.90686841 0.72190585 0.65548291 0.36514798
- 0.43262137 0.08040969 0.12340992 0.33651235]</t>
+          <t>[0.30028274 0.76546701 0.9055567  0.72051971 0.65512779 0.33673324
+ 0.41934852 0.07933996 0.12977535 0.32973727]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[0.99249463 3.67207283 4.62747451 2.62366999 2.19202894 1.4354855
- 1.65429852 0.25289343 0.48535437 1.34425288]</t>
+          <t>[0.99239818 3.73090063 4.62078125 2.61863224 2.19084137 1.32378023
+ 1.60354456 0.24952909 0.51038873 1.31718872]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[0.17633935 0.20072133 0.46441979 0.41468962 0.66876704 0.11649407
- 0.23233201 0.04414103 0.04032276 0.07191334]</t>
+          <t>[0.17669916 0.20424758 0.46369834 0.41369821 0.66821344 0.10628816
+ 0.22058302 0.04324771 0.0425632  0.07154267]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>[47.69230769 52.30769231 49.23076923 41.53846154 46.15384615 63.07692308
- 50.76923077 53.84615385 41.53846154 44.61538462]</t>
+          <t>[47.69230769 58.46153846 47.69230769 47.69230769 35.38461538 44.61538462
+ 50.76923077 41.53846154 40.         43.07692308]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>GRU &amp; 0.47 $\pm$ 0.26 &amp; 1.93 $\pm$ 1.32 &amp; 0.24 $\pm$ 19.80 &amp; 49.08 $\pm$ 6.13 &amp; "-"</t>
+          <t>GRU &amp; 0.46 $\pm$ 0.27 &amp; 1.92 $\pm$ 1.33 &amp; 0.24 $\pm$ 19.83 &amp; 45.69 $\pm$ 6.04 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1473,22 +1473,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.22 (0.14)</t>
+          <t>0.19 (0.14)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.90 (0.71)</t>
+          <t>0.82 (0.74)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.09 (0.07)</t>
+          <t>0.08 (0.07)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>48.46 (5.11)</t>
+          <t>48.15 (5.29)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1503,26 +1503,26 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[0.33063115 0.27617933 0.53009914 0.34709304 0.06654568 0.12440013
- 0.1162499  0.08324325 0.12761112 0.15761038]</t>
+          <t>[0.3216919  0.36524509 0.50385494 0.08301981 0.06669473 0.11842719
+ 0.11609004 0.08332413 0.12650144 0.14826756]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[1.092696   1.34610324 2.70493519 1.2614631  0.22253832 0.48904717
- 0.44452737 0.26180518 0.50187708 0.62960009]</t>
+          <t>[1.06315286 1.78021143 2.57101898 0.30172438 0.22303676 0.46556609
+ 0.44391608 0.26205953 0.49751289 0.5922787 ]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[0.18341406 0.06066534 0.25405357 0.15125222 0.05329277 0.04176255
- 0.06651921 0.04428299 0.04092814 0.03387167]</t>
+          <t>[0.18210878 0.08941539 0.2389752  0.03728092 0.05211743 0.03985607
+ 0.06751879 0.04461598 0.04057375 0.03235297]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>[46.15384615 50.76923077 53.84615385 50.76923077 43.07692308 52.30769231
- 47.69230769 56.92307692 43.07692308 40.        ]</t>
+          <t>[46.15384615 50.76923077 53.84615385 44.61538462 46.15384615 53.84615385
+ 47.69230769 56.92307692 41.53846154 40.        ]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>WaveNet &amp; 0.22 $\pm$ 0.14 &amp; 0.90 $\pm$ 0.71 &amp; 0.09 $\pm$ 7.21 &amp; 48.46 $\pm$ 5.11 &amp; "-"</t>
+          <t>WaveNet &amp; 0.19 $\pm$ 0.14 &amp; 0.82 $\pm$ 0.74 &amp; 0.08 $\pm$ 6.72 &amp; 48.15 $\pm$ 5.29 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1547,27 +1547,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.18 (0.10)</t>
+          <t>0.13 (0.05)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.74 (0.54)</t>
+          <t>0.52 (0.25)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.07 (0.03)</t>
+          <t>0.05 (0.03)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>48.46 (6.57)</t>
+          <t>45.85 (4.55)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>6 (0)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1577,36 +1577,36 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[0.20549903 0.4392259  0.23783587 0.15253535 0.06488024 0.12100599
- 0.2282788  0.07365485 0.11915529 0.14485801]</t>
+          <t>[0.22719121 0.20183029 0.16909446 0.08713294 0.06549723 0.11578037
+ 0.10843045 0.07297847 0.11248193 0.13891844]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[0.67914947 2.14079529 1.21360433 0.55436928 0.21696885 0.47570398
- 0.87291407 0.23164907 0.46862148 0.5786587 ]</t>
+          <t>[0.7508395  0.98372464 0.86283774 0.31667298 0.21903213 0.4551608
+ 0.41462662 0.2295218  0.44237608 0.55493211]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[0.11519714 0.10594107 0.1144034  0.07225158 0.04812961 0.04142068
- 0.10125825 0.03695254 0.03909536 0.03217898]</t>
+          <t>[0.12788683 0.04921991 0.07833551 0.0365402  0.04859301 0.03949328
+ 0.06021308 0.03684595 0.0364366  0.02980671]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[56.92307692 50.76923077 50.76923077 53.84615385 49.23076923 40.
- 58.46153846 43.07692308 40.         41.53846154]</t>
+          <t>[43.07692308 44.61538462 47.69230769 49.23076923 49.23076923 41.53846154
+ 55.38461538 46.15384615 38.46153846 43.07692308]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[5. 6. 6. 6. 6. 6. 6. 6. 6. 6.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>eTS &amp; 0.18 $\pm$ 0.10 &amp; 0.74 $\pm$ 0.54 &amp; 0.07 $\pm$ 3.33 &amp; 48.46 $\pm$ 6.57 &amp; 6 $\pm$ 0</t>
+          <t>eTS &amp; 0.13 $\pm$ 0.05 &amp; 0.52 $\pm$ 0.25 &amp; 0.05 $\pm$ 2.80 &amp; 45.85 $\pm$ 4.55 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1621,66 +1621,66 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.37 (0.23)</t>
+          <t>0.11 (0.03)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.51 (1.15)</t>
+          <t>0.43 (0.16)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.19 (0.14)</t>
+          <t>0.04 (0.01)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>49.08 (6.09)</t>
+          <t>46.77 (5.25)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>46 (5)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>omega: 50, r: 0.7 \\</t>
+          <t>omega: 250, r: 0.1 \\</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[0.60710982 0.60690212 0.78697645 0.41917737 0.37314521 0.40413805
- 0.11687249 0.08209865 0.12489957 0.1476965 ]</t>
+          <t>[0.10102815 0.14748119 0.12371101 0.08016059 0.06404043 0.11776469
+ 0.10798422 0.07266041 0.11250727 0.13918891]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[2.00642458 2.95805234 4.01570219 1.52344393 1.24785117 1.58876494
- 0.44690809 0.25820532 0.49121296 0.58999749]</t>
+          <t>[0.33388583 0.71882611 0.63125976 0.29133293 0.2141604  0.46296162
+ 0.41292028 0.22852149 0.44247571 0.55601254]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[0.36186171 0.15838241 0.40072554 0.23283459 0.36828371 0.15062326
- 0.06854465 0.04436701 0.04113305 0.03278151]</t>
+          <t>[0.05597936 0.0328748  0.05214977 0.03208243 0.04802843 0.04027238
+ 0.05953647 0.03635827 0.03661032 0.02967749]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>[46.15384615 43.07692308 47.69230769 50.76923077 53.84615385 56.92307692
- 58.46153846 52.30769231 40.         41.53846154]</t>
+          <t>[41.53846154 43.07692308 50.76923077 47.69230769 55.38461538 43.07692308
+ 55.38461538 47.69230769 41.53846154 41.53846154]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[61. 47. 48. 43. 43. 43. 43. 43. 43. 43.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Simpl\_eTS &amp; 0.37 $\pm$ 0.23 &amp; 1.51 $\pm$ 1.15 &amp; 0.19 $\pm$ 13.88 &amp; 49.08 $\pm$ 6.09 &amp; 46 $\pm$ 5</t>
+          <t>Simpl\_eTS &amp; 0.11 $\pm$ 0.03 &amp; 0.43 $\pm$ 0.16 &amp; 0.04 $\pm$ 1.02 &amp; 46.77 $\pm$ 5.25 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1695,12 +1695,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.21 (0.16)</t>
+          <t>0.19 (0.12)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.88 (0.81)</t>
+          <t>0.78 (0.54)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1710,12 +1710,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>47.69 (6.19)</t>
+          <t>46.92 (7.02)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5 (0)</t>
+          <t>9 (4)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1725,36 +1725,36 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[0.39119407 0.52848251 0.43074023 0.11031388 0.07197832 0.1101668
- 0.10845753 0.0765374  0.1176787  0.13945431]</t>
+          <t>[0.43344111 0.31211242 0.35147936 0.11779324 0.10013785 0.13758841
+ 0.11696234 0.08135477 0.12745384 0.14405537]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[1.29284913 2.57583368 2.19793679 0.40092101 0.24070583 0.43309246
- 0.41473015 0.24071486 0.46281425 0.55707275]</t>
+          <t>[1.4324705  1.52124179 1.7934926  0.42810371 0.33487535 0.54089348
+ 0.44725167 0.25586579 0.50125855 0.57545244]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[0.22800633 0.1403086  0.21836995 0.05206314 0.05574285 0.03653371
- 0.06115931 0.04009831 0.03898103 0.03046307]</t>
+          <t>[0.26231429 0.07871588 0.17657386 0.04464574 0.07399412 0.04737832
+ 0.06390918 0.04098761 0.04361077 0.03154101]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>[52.30769231 52.30769231 55.38461538 47.69230769 46.15384615 40.
- 55.38461538 44.61538462 35.38461538 47.69230769]</t>
+          <t>[56.92307692 40.         55.38461538 46.15384615 49.23076923 38.46153846
+ 56.92307692 46.15384615 40.         40.        ]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[5. 5. 5. 5. 5. 5. 5. 5. 5. 5.]</t>
+          <t>[ 4.  4.  4.  5.  6. 10. 11. 14. 14. 14.]</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>exTS &amp; 0.21 $\pm$ 0.16 &amp; 0.88 $\pm$ 0.81 &amp; 0.09 $\pm$ 7.28 &amp; 47.69 $\pm$ 6.19 &amp; 5 $\pm$ 0</t>
+          <t>exTS &amp; 0.19 $\pm$ 0.12 &amp; 0.78 $\pm$ 0.54 &amp; 0.09 $\pm$ 7.07 &amp; 46.92 $\pm$ 7.02 &amp; 9 $\pm$ 4</t>
         </is>
       </c>
     </row>
@@ -1769,66 +1769,66 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.67 (2.39)</t>
+          <t>0.20 (0.08)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6.39 (9.33)</t>
+          <t>0.81 (0.48)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.67 (0.88)</t>
+          <t>0.09 (0.04)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>45.38 (5.64)</t>
+          <t>48.31 (6.53)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2 (1)</t>
+          <t>2 (0)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>alpha: 0.1, beta: 0.001, lambda1: 0.1, r: 0.5, s: 100 \\</t>
+          <t>alpha: 0.001, beta: 0.01, lambda1: 0.1, omega: 100, sigma: 0.25 \\</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[0.22719121 0.39705248 0.29153396 0.17216744 0.20008395 0.13500445
- 0.11191576 3.23783532 4.74145508 7.16948376]</t>
+          <t>[0.22719121 0.42195354 0.26019415 0.15871616 0.16700167 0.12512605
+ 0.19516596 0.14085984 0.15053025 0.14105697]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[ 0.7508395   1.93524126  1.48760938  0.62571948  0.66910946  0.53073531
-  0.42795408 10.18319213 18.64749491 28.63965972]</t>
+          <t>[0.7508395  2.05660951 1.32769187 0.57683258 0.55847757 0.49190091
+ 0.74629408 0.44301291 0.59201488 0.56347481]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>[0.12788683 0.10418923 0.1437573  0.06847718 0.1581311  0.04558986
- 0.06239995 2.07330241 1.96812789 1.98980984]</t>
+          <t>[0.12788683 0.11161854 0.12723483 0.06378017 0.12277271 0.0422115
+ 0.10363769 0.07853392 0.05093901 0.03032448]</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>[43.07692308 44.61538462 55.38461538 46.15384615 43.07692308 36.92307692
- 55.38461538 46.15384615 40.         43.07692308]</t>
+          <t>[43.07692308 50.76923077 56.92307692 46.15384615 58.46153846 40.
+ 56.92307692 44.61538462 43.07692308 43.07692308]</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1. 1. 1. 3. 3. 3.]</t>
+          <t>[1. 2. 2. 2. 1. 1. 1. 2. 2. 2.]</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>ePL &amp; 1.67 $\pm$ 2.39 &amp; 6.39 $\pm$ 9.33 &amp; 0.67 $\pm$ 87.58 &amp; 45.38 $\pm$ 5.64 &amp; 2 $\pm$ 1</t>
+          <t>ePL &amp; 0.20 $\pm$ 0.08 &amp; 0.81 $\pm$ 0.48 &amp; 0.09 $\pm$ 3.55 &amp; 48.31 $\pm$ 6.53 &amp; 2 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1843,66 +1843,66 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.33 (0.19)</t>
+          <t>0.33 (0.20)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.27 (0.75)</t>
+          <t>1.27 (0.78)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.14 (0.11)</t>
+          <t>0.12 (0.08)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>48.15 (8.14)</t>
+          <t>50.92 (6.69)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>41 (36)</t>
+          <t>20 (17)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>alpha: 0.001, lambda1: 0.5, omega: 10000, sigma: 0.001, w: 10 \\</t>
+          <t>alpha: 0.01, lambda1: 0.5, omega: 10000, sigma: 0.003, w: 10 \\</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[0.26355266 0.12366022 0.26900057 0.17246652 0.44977343 0.77342307
- 0.54087567 0.17554262 0.19029508 0.31987746]</t>
+          <t>[0.5272492  0.11140995 0.24417416 0.31062042 0.15766248 0.83908468
+ 0.37312683 0.17462766 0.25647768 0.31696046]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[0.87100969 0.60272223 1.37262833 0.62680643 1.50410694 3.04051416
- 2.06825156 0.5520924  0.74840455 1.27780211]</t>
+          <t>[1.7424949  0.54301417 1.2459467  1.12890826 0.52724597 3.29864592
+ 1.42679769 0.54921477 1.00869166 1.26614972]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[0.13119013 0.02475785 0.08593389 0.06235393 0.31071684 0.27097236
- 0.3074716  0.08300824 0.06249294 0.07348759]</t>
+          <t>[0.18623636 0.02260896 0.0726572  0.09144542 0.07982078 0.29332517
+ 0.18240989 0.08572643 0.08556475 0.07020905]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[50.76923077 44.61538462 50.76923077 50.76923077 46.15384615 67.69230769
- 49.23076923 33.84615385 43.07692308 44.61538462]</t>
+          <t>[44.61538462 38.46153846 47.69230769 53.84615385 58.46153846 61.53846154
+ 52.30769231 52.30769231 55.38461538 44.61538462]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[  5.   8.   8.  16.  19.  33.  45.  81.  92. 105.]</t>
+          <t>[ 3.  6.  6.  7.  7. 17. 22. 41. 43. 50.]</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>eMG &amp; 0.33 $\pm$ 0.19 &amp; 1.27 $\pm$ 0.75 &amp; 0.14 $\pm$ 10.50 &amp; 48.15 $\pm$ 8.14 &amp; 41 $\pm$ 36</t>
+          <t>eMG &amp; 0.33 $\pm$ 0.20 &amp; 1.27 $\pm$ 0.78 &amp; 0.12 $\pm$ 7.57 &amp; 50.92 $\pm$ 6.69 &amp; 20 $\pm$ 17</t>
         </is>
       </c>
     </row>
@@ -1917,22 +1917,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.37 (0.48)</t>
+          <t>0.11 (0.04)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.47 (1.95)</t>
+          <t>0.43 (0.14)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.14 (0.13)</t>
+          <t>0.04 (0.02)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>47.38 (7.08)</t>
+          <t>47.23 (5.42)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1942,41 +1942,41 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>alpha: 0.01, beta: 0.01, e\_utility: 0.05, lambda1: 0.25, omega: 100, pi: 0.3, sigma: 0.1 \\</t>
+          <t>alpha: 0.1, beta: 0.01, e\_utility: 0.03, lambda1: 0.25, omega: 10000, pi: 0.3, sigma: 0.1 \\</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[0.22298114 0.36476794 0.24937133 0.21409791 0.25125905 0.11464891
- 0.12496939 0.15705377 0.16479428 1.80445212]</t>
+          <t>[0.19305689 0.10906303 0.10229874 0.07465748 0.06161367 0.13505483
+ 0.10679773 0.07366181 0.11338613 0.14033043]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[0.73692572 1.77788579 1.27246626 0.77811014 0.84024634 0.45071274
- 0.47786978 0.49394382 0.6481134  7.20817517]</t>
+          <t>[0.63802968 0.53157525 0.52199944 0.27133259 0.20604496 0.53093339
+ 0.40838325 0.23167094 0.44593214 0.56057254]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[0.12669619 0.09537654 0.12191432 0.08320769 0.18293341 0.03985105
- 0.06689613 0.0826851  0.05706929 0.49850563]</t>
+          <t>[0.09673544 0.02153915 0.04366194 0.03025251 0.04803745 0.04731802
+ 0.05836233 0.03688689 0.03679222 0.02987396]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[40.         43.07692308 56.92307692 47.69230769 58.46153846 38.46153846
- 56.92307692 44.61538462 46.15384615 41.53846154]</t>
+          <t>[49.23076923 38.46153846 47.69230769 52.30769231 52.30769231 43.07692308
+ 56.92307692 47.69230769 41.53846154 43.07692308]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[1. 1. 1. 1. 1. 2. 1. 2. 2. 1.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>ePL+ &amp; 0.37 $\pm$ 0.48 &amp; 1.47 $\pm$ 1.95 &amp; 0.14 $\pm$ 12.71 &amp; 47.38 $\pm$ 7.08 &amp; 1 $\pm$ 0</t>
+          <t>ePL+ &amp; 0.11 $\pm$ 0.04 &amp; 0.43 $\pm$ 0.14 &amp; 0.04 $\pm$ 2.00 &amp; 47.23 $\pm$ 5.42 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1991,66 +1991,66 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.90 (3.57)</t>
+          <t>2.61 (2.51)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6.62 (11.69)</t>
+          <t>9.60 (8.42)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.51 (0.72)</t>
+          <t>0.83 (0.70)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>51.23 (6.00)</t>
+          <t>50.00 (6.89)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>8 (7)</t>
+          <t>9 (0)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>alpha: 0.05, beta: 0.01, e\_utility: 0.05, lambda1: 1e-07, sigma: 0.5 \\</t>
+          <t>alpha: 0.05, beta: 0.25, e\_utility: 0.05, lambda1: 1e-07, sigma: 0.5 \\</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[12.49865568  0.14541718  0.40215996  0.20048484  1.64946884  0.74764293
-  1.45590185  0.27296568  0.80197501  0.83207757]</t>
+          <t>[8.98166959 0.44157484 1.07374063 0.46657579 2.55375748 2.16065408
+ 3.55126421 0.72827611 4.73011537 1.36376338]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[41.30654641  0.70876608  2.05210034  0.72863527  5.51606063  2.93916617
-  5.56721526  0.85849392  3.15405814  3.32386813]</t>
+          <t>[29.68333246  2.15224406  5.47897285  1.69570711  8.54013166  8.49405657
+ 13.57966009  2.29047335 18.60289738  5.44777288]</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>[2.48737564 0.03079275 0.13160553 0.04867819 0.92107981 0.24584517
- 0.70341921 0.11837313 0.2145229  0.14962226]</t>
+          <t>[2.12479436 0.09464986 0.40343422 0.14368402 1.51349984 0.78811501
+ 1.66574398 0.20071725 1.094209   0.2391256 ]</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>[58.46153846 44.61538462 55.38461538 46.15384615 53.84615385 63.07692308
- 46.15384615 50.76923077 49.23076923 44.61538462]</t>
+          <t>[44.61538462 44.61538462 58.46153846 49.23076923 55.38461538 36.92307692
+ 49.23076923 60.         55.38461538 46.15384615]</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[ 1.  1.  1.  1.  2.  8. 10. 17. 18. 18.]</t>
+          <t>[9. 9. 9. 9. 9. 9. 9. 9. 9. 9.]</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>ePL-KRLS-DISCO &amp; 1.90 $\pm$ 3.57 &amp; 6.62 $\pm$ 11.69 &amp; 0.51 $\pm$ 71.71 &amp; 51.23 $\pm$ 6.00 &amp; 8 $\pm$ 7</t>
+          <t>ePL-KRLS-DISCO &amp; 2.61 $\pm$ 2.51 &amp; 9.60 $\pm$ 8.42 &amp; 0.83 $\pm$ 69.66 &amp; 50.00 $\pm$ 6.89 &amp; 9 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2065,66 +2065,66 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.54 (0.31)</t>
+          <t>0.55 (0.34)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.15 (1.39)</t>
+          <t>2.20 (1.51)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.24 (0.18)</t>
+          <t>0.25 (0.19)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>47.23 (7.76)</t>
+          <t>46.77 (6.71)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10 (0)</t>
+          <t>8 (0)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>fuzzy\_operator: prod, rules: 10 \\</t>
+          <t>fuzzy\_operator: prod, rules: 8 \\</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[0.33916214 0.17442354 0.91029238 0.43484266 0.58013965 0.90024802
- 0.83718229 0.15783603 0.1562572  0.87134648]</t>
+          <t>[0.32493911 0.15614073 0.91797002 0.41872934 0.5792042  1.17019091
+ 0.82320184 0.15205084 0.1709596  0.77989094]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[1.12088989 0.85014363 4.644946   1.58037733 1.94007027 3.53909385
- 3.20129686 0.49640405 0.6145382  3.48073412]</t>
+          <t>[1.07388448 0.76103287 4.68412265 1.52181562 1.936942   4.60030502
+ 3.14783708 0.47820927 0.67236075 3.11540022]</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[0.17538007 0.03983317 0.45606579 0.12551207 0.43316666 0.34605367
- 0.56536161 0.07983905 0.05189264 0.1365407 ]</t>
+          <t>[0.16358834 0.03354155 0.45933559 0.11081988 0.43998913 0.44377267
+ 0.54393561 0.08057706 0.05571047 0.12502153]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>[41.53846154 47.69230769 38.46153846 50.76923077 38.46153846 64.61538462
- 49.23076923 47.69230769 40.         53.84615385]</t>
+          <t>[47.69230769 44.61538462 38.46153846 47.69230769 38.46153846 56.92307692
+ 50.76923077 44.61538462 40.         58.46153846]</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[10. 10. 10. 10. 10. 10. 10. 10. 10. 10.]</t>
+          <t>[8. 8. 8. 8. 8. 8. 8. 8. 8. 8.]</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>NMR &amp; 0.54 $\pm$ 0.31 &amp; 2.15 $\pm$ 1.39 &amp; 0.24 $\pm$ 18.17 &amp; 47.23 $\pm$ 7.76 &amp; 10 $\pm$ 0</t>
+          <t>NMR &amp; 0.55 $\pm$ 0.34 &amp; 2.20 $\pm$ 1.51 &amp; 0.25 $\pm$ 18.96 &amp; 46.77 $\pm$ 6.71 &amp; 8 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2213,12 +2213,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.10 (0.02)</t>
+          <t>0.11 (0.02)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.42 (0.14)</t>
+          <t>0.45 (0.15)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2228,51 +2228,51 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>47.38 (5.00)</t>
+          <t>46.77 (4.36)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10 (1)</t>
+          <t>11 (2)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 12 \\</t>
+          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 14 \\</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[0.09980837 0.13977709 0.10897394 0.08218152 0.06445081 0.11712059
- 0.11040224 0.07456641 0.11044666 0.14070751]</t>
+          <t>[0.11318531 0.15631936 0.11831312 0.09920963 0.06823382 0.11803571
+ 0.10989281 0.07745932 0.11378147 0.14035574]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[0.32985461 0.68127619 0.55606097 0.29867771 0.21553276 0.46042953
- 0.42216652 0.23451595 0.4343716  0.56207887]</t>
+          <t>[0.37406379 0.7619035  0.60371598 0.3605641  0.22818368 0.46402707
+ 0.42021854 0.24361435 0.44748696 0.56067366]</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[0.05597135 0.0302922  0.04464368 0.03279918 0.04972248 0.04005216
- 0.06004823 0.03686975 0.03579901 0.03047314]</t>
+          <t>[0.06259462 0.03488487 0.04867157 0.03853845 0.05270745 0.04045343
+ 0.06054552 0.03789394 0.03744023 0.03056187]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>[50.76923077 43.07692308 50.76923077 46.15384615 52.30769231 43.07692308
- 56.92307692 47.69230769 40.         43.07692308]</t>
+          <t>[47.69230769 41.53846154 46.15384615 44.61538462 53.84615385 43.07692308
+ 55.38461538 47.69230769 43.07692308 44.61538462]</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[ 8.  8.  8. 11. 11. 11. 12.  9.  9. 10.]</t>
+          <t>[ 9.  9.  9. 11. 12. 12. 14. 11. 11. 11.]</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>NTSK-wRLS &amp; 0.10 $\pm$ 0.02 &amp; 0.42 $\pm$ 0.14 &amp; 0.04 $\pm$ 1.00 &amp; 47.38 $\pm$ 5.00 &amp; 10 $\pm$ 1</t>
+          <t>NTSK-wRLS &amp; 0.11 $\pm$ 0.02 &amp; 0.45 $\pm$ 0.15 &amp; 0.04 $\pm$ 1.05 &amp; 46.77 $\pm$ 4.36 &amp; 11 $\pm$ 2</t>
         </is>
       </c>
     </row>
@@ -2287,66 +2287,66 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.63 (0.44)</t>
+          <t>0.40 (0.28)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.55 (1.96)</t>
+          <t>1.62 (1.30)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.30 (0.19)</t>
+          <t>0.19 (0.17)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>49.23 (6.23)</t>
+          <t>48.62 (5.76)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3 (0)</t>
+          <t>16 (1)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>error\_metric: CPPM, fuzzy\_operator: min, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 3, sol\_per\_pop: 10 \\</t>
+          <t>error\_metric: RMSE, fuzzy\_operator: minmax, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 17, sol\_per\_pop: 10 \\</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[0.3407995  0.1377729  1.08809357 0.42403206 0.57307827 1.0977328
- 0.75495184 0.1365049  0.26729955 1.51518829]</t>
+          <t>[0.141188   0.1500359  0.86961284 0.15598675 0.57285534 0.70512416
+ 0.7672295  0.12426876 0.14451227 0.36207851]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[1.12630116 0.67150771 5.55221156 1.54108765 1.91645602 4.31545458
- 2.8868563  0.42931635 1.0512526  6.05266412]</t>
+          <t>[0.46660928 0.73127782 4.43737062 0.56691292 1.91571048 2.77201454
+ 2.93380474 0.39083294 0.56834701 1.44638102]</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>[0.17895208 0.03112774 0.55984097 0.24931711 0.45095436 0.42611438
- 0.49974099 0.0707865  0.08393563 0.41193273]</t>
+          <t>[0.06522596 0.03075345 0.4175619  0.05522628 0.42651122 0.25442038
+ 0.46343373 0.06735242 0.04800612 0.07685312]</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>[47.69230769 41.53846154 49.23076923 47.69230769 41.53846154 63.07692308
- 47.69230769 50.76923077 46.15384615 56.92307692]</t>
+          <t>[53.84615385 44.61538462 46.15384615 50.76923077 43.07692308 40.
+ 56.92307692 56.92307692 43.07692308 50.76923077]</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>[3. 3. 3. 3. 3. 3. 3. 3. 3. 3.]</t>
+          <t>[15. 17. 17. 17. 17. 16. 16. 16. 17. 17.]</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>GEN-NMR &amp; 0.63 $\pm$ 0.44 &amp; 2.55 $\pm$ 1.96 &amp; 0.30 $\pm$ 18.63 &amp; 49.23 $\pm$ 6.23 &amp; 3 $\pm$ 0</t>
+          <t>GEN-NMR &amp; 0.40 $\pm$ 0.28 &amp; 1.62 $\pm$ 1.30 &amp; 0.19 $\pm$ 17.14 &amp; 48.62 $\pm$ 5.76 &amp; 16 $\pm$ 1</t>
         </is>
       </c>
     </row>
@@ -2361,22 +2361,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.20 (0.17)</t>
+          <t>0.22 (0.12)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.85 (0.90)</t>
+          <t>0.85 (0.47)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.07 (0.04)</t>
+          <t>0.11 (0.11)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>46.62 (6.98)</t>
+          <t>47.85 (8.01)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2386,31 +2386,31 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, error\_metric: CPPM, fuzzy\_operator: min, lambda1: 0.95, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
+          <t>adaptive\_filter: RLS, error\_metric: CPPM, fuzzy\_operator: prod, lambda1: 0.96, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[0.13756014 0.70085969 0.24363363 0.14636944 0.08053613 0.17674378
- 0.12224758 0.08702114 0.12283806 0.16159489]</t>
+          <t>[0.29190042 0.11769826 0.33937458 0.1239249  0.47901228 0.1902596
+ 0.29394871 0.08050156 0.11956864 0.15641425]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[0.45461963 3.41600332 1.24318855 0.5319601  0.26932439 0.69482276
- 0.46746185 0.27368687 0.48310531 0.64551687]</t>
+          <t>[0.96469559 0.57366354 1.7317256  0.45038842 1.60188584 0.74795673
+ 1.12402888 0.25318237 0.47024713 0.62482197]</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[0.06898515 0.17823139 0.08529752 0.05231841 0.06480468 0.06328703
- 0.06728675 0.04465949 0.0396801  0.03557621]</t>
+          <t>[0.12660973 0.02375693 0.14031757 0.04744121 0.41969643 0.06889768
+ 0.1517955  0.03943266 0.03889923 0.0347015 ]</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>[50.76923077 49.23076923 61.53846154 43.07692308 41.53846154 43.07692308
- 53.84615385 46.15384615 36.92307692 40.        ]</t>
+          <t>[56.92307692 41.53846154 56.92307692 41.53846154 56.92307692 46.15384615
+ 58.46153846 43.07692308 38.46153846 38.46153846]</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>GEN-NTSK-RLS &amp; 0.20 $\pm$ 0.17 &amp; 0.85 $\pm$ 0.90 &amp; 0.07 $\pm$ 3.88 &amp; 46.62 $\pm$ 6.98 &amp; 1 $\pm$ 0</t>
+          <t>GEN-NTSK-RLS &amp; 0.22 $\pm$ 0.12 &amp; 0.85 $\pm$ 0.47 &amp; 0.11 $\pm$ 11.30 &amp; 47.85 $\pm$ 8.01 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2435,66 +2435,66 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.11 (0.03)</t>
+          <t>0.32 (0.27)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.44 (0.16)</t>
+          <t>1.33 (1.24)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.04 (0.01)</t>
+          <t>0.15 (0.13)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>47.23 (5.29)</t>
+          <t>45.54 (5.11)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3 (0)</t>
+          <t>6 (0)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 12 \\</t>
+          <t>adaptive\_filter: wRLS, error\_metric: CPPM, fuzzy\_operator: prod, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 7, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[0.11596415 0.12887704 0.14704869 0.07463003 0.06648244 0.1195892
- 0.1069853  0.07251739 0.11030374 0.14026087]</t>
+          <t>[0.19436335 0.2062802  0.76245932 0.50673577 0.15984352 0.15045308
+ 0.13838111 0.08136627 0.87060398 0.15592674]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[0.38324751 0.62814911 0.75034486 0.27123285 0.22232682 0.47013422
- 0.40910052 0.22807167 0.43380953 0.56029469]</t>
+          <t>[0.64234738 1.00541355 3.89059872 1.84166317 0.53453967 0.59146765
+ 0.52915479 0.25590193 3.42396647 0.62287452]</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[0.06623162 0.02684628 0.0640671  0.03086851 0.04875339 0.04121974
- 0.05886025 0.03590032 0.03534421 0.03059598]</t>
+          <t>[0.10572226 0.04979414 0.38476065 0.31767251 0.12795858 0.04832551
+ 0.08296816 0.04360173 0.32947726 0.03471118]</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>[49.23076923 41.53846154 52.30769231 46.15384615 50.76923077 43.07692308
- 55.38461538 50.76923077 36.92307692 46.15384615]</t>
+          <t>[41.53846154 44.61538462 47.69230769 41.53846154 50.76923077 50.76923077
+ 43.07692308 55.38461538 41.53846154 38.46153846]</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[3. 3. 3. 3. 3. 3. 3. 3. 3. 3.]</t>
+          <t>[6. 6. 6. 7. 7. 7. 7. 6. 6. 6.]</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>GEN-NTSK-wRLS &amp; 0.11 $\pm$ 0.03 &amp; 0.44 $\pm$ 0.16 &amp; 0.04 $\pm$ 1.39 &amp; 47.23 $\pm$ 5.29 &amp; 3 $\pm$ 0</t>
+          <t>GEN-NTSK-wRLS &amp; 0.32 $\pm$ 0.27 &amp; 1.33 $\pm$ 1.24 &amp; 0.15 $\pm$ 12.93 &amp; 45.54 $\pm$ 5.11 &amp; 6 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2509,22 +2509,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.40 (0.26)</t>
+          <t>0.43 (0.23)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.62 (1.21)</t>
+          <t>1.74 (1.13)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.18 (0.16)</t>
+          <t>0.20 (0.16)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>48.31 (5.72)</t>
+          <t>47.54 (4.32)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2534,31 +2534,31 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>combination: median, n\_estimators: 50 \\</t>
+          <t>combination: mean, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[0.217432   0.13566616 0.87938877 0.34871962 0.57337132 0.34255045
- 0.75164369 0.10129389 0.15642945 0.50008387]</t>
+          <t>[0.19404916 0.1695255  0.87296223 0.33594578 0.57377448 0.45523986
+ 0.74314133 0.14500553 0.32415111 0.50279461]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[0.71858649 0.66123941 4.48725426 1.26737469 1.917436   1.34664913
- 2.87420626 0.31857556 0.61521567 1.99766572]</t>
+          <t>[0.64130902 0.82627046 4.45446158 1.22094987 1.91878425 1.78965858
+ 2.84169412 0.45605134 1.27484202 2.00849422]</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>[0.09734845 0.02934084 0.42838519 0.10097607 0.41280636 0.10953763
- 0.44671334 0.05267081 0.05385187 0.11814359]</t>
+          <t>[0.09425494 0.03945148 0.42623794 0.1028589  0.41478272 0.1446503
+ 0.46201779 0.06856974 0.11896059 0.11871544]</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>[49.23076923 44.61538462 46.15384615 50.76923077 38.46153846 58.46153846
- 56.92307692 49.23076923 44.61538462 44.61538462]</t>
+          <t>[49.23076923 43.07692308 47.69230769 49.23076923 46.15384615 58.46153846
+ 49.23076923 44.61538462 43.07692308 44.61538462]</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>R-NMR &amp; 0.40 $\pm$ 0.26 &amp; 1.62 $\pm$ 1.21 &amp; 0.18 $\pm$ 16.23 &amp; 48.31 $\pm$ 5.72 &amp; "-"</t>
+          <t>R-NMR &amp; 0.43 $\pm$ 0.23 &amp; 1.74 $\pm$ 1.13 &amp; 0.20 $\pm$ 15.68 &amp; 47.54 $\pm$ 4.32 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -2583,22 +2583,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.11 (0.03)</t>
+          <t>0.12 (0.04)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.44 (0.17)</t>
+          <t>0.50 (0.26)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.04 (0.01)</t>
+          <t>0.05 (0.02)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>46.15 (5.28)</t>
+          <t>46.77 (5.68)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2608,31 +2608,31 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 12 \\</t>
+          <t>combination: mean, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[0.11388194 0.15167836 0.13361266 0.08112426 0.06613373 0.1161331
- 0.10761702 0.07355719 0.10979158 0.13946959]</t>
+          <t>[0.15043575 0.17267377 0.21382597 0.08399573 0.06521043 0.11694183
+ 0.10821299 0.07313974 0.10972629 0.1388365 ]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[0.37636606 0.73928317 0.68178488 0.29483523 0.22116068 0.45654746
- 0.41151614 0.2313419  0.43179528 0.55713377]</t>
+          <t>[0.49717199 0.84161522 1.09108906 0.3052712  0.21807305 0.45972678
+ 0.41379506 0.23002899 0.43153851 0.55460482]</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[0.06533995 0.03410671 0.0586569  0.0319859  0.05100402 0.03957379
- 0.05907708 0.03712441 0.035568   0.02991162]</t>
+          <t>[0.08690103 0.04038405 0.10148351 0.03366082 0.0502085  0.03973308
+ 0.0595481  0.03675146 0.03547026 0.02983401]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>[46.15384615 41.53846154 50.76923077 46.15384615 55.38461538 43.07692308
- 53.84615385 44.61538462 38.46153846 41.53846154]</t>
+          <t>[46.15384615 41.53846154 52.30769231 46.15384615 55.38461538 43.07692308
+ 55.38461538 46.15384615 36.92307692 44.61538462]</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>R-NTSK &amp; 0.11 $\pm$ 0.03 &amp; 0.44 $\pm$ 0.17 &amp; 0.04 $\pm$ 1.23 &amp; 46.15 $\pm$ 5.28 &amp; "-"</t>
+          <t>R-NTSK &amp; 0.12 $\pm$ 0.04 &amp; 0.50 $\pm$ 0.26 &amp; 0.05 $\pm$ 2.31 &amp; 46.77 $\pm$ 5.68 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -2657,22 +2657,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.14 (0.04)</t>
+          <t>0.15 (0.06)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.57 (0.27)</t>
+          <t>0.62 (0.36)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.06 (0.03)</t>
+          <t>0.07 (0.04)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>46.62 (5.76)</t>
+          <t>47.08 (4.97)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2683,26 +2683,26 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[0.10632994 0.13835918 0.25222105 0.1141214  0.15363637 0.12964965
- 0.15587097 0.0773489  0.11302177 0.16201345]</t>
+          <t>[0.12878072 0.15441392 0.32032855 0.11403536 0.15310014 0.1268574
+ 0.15314395 0.07591692 0.11327635 0.16079715]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[0.35140758 0.67436525 1.28700753 0.41475892 0.51378207 0.5096843
- 0.59603415 0.24326708 0.44449917 0.64718888]</t>
+          <t>[0.42560472 0.75261636 1.63453948 0.4144462  0.51198884 0.49870729
+ 0.58560631 0.2387634  0.44550042 0.64233018]</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>[0.0609322  0.02958143 0.12013135 0.04035078 0.11417286 0.04309372
- 0.08358083 0.03890322 0.03623977 0.03721781]</t>
+          <t>[0.07365319 0.03425944 0.155278   0.04029931 0.11379341 0.04233698
+ 0.08214283 0.03842761 0.03647513 0.03676713]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>[52.30769231 44.61538462 49.23076923 49.23076923 52.30769231 44.61538462
- 53.84615385 46.15384615 35.38461538 38.46153846]</t>
+          <t>[44.61538462 44.61538462 52.30769231 49.23076923 50.76923077 43.07692308
+ 55.38461538 47.69230769 36.92307692 46.15384615]</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>RF-NTSK &amp; 0.14 $\pm$ 0.04 &amp; 0.57 $\pm$ 0.27 &amp; 0.06 $\pm$ 3.20 &amp; 46.62 $\pm$ 5.76 &amp; "-"</t>
+          <t>RF-NTSK &amp; 0.15 $\pm$ 0.06 &amp; 0.62 $\pm$ 0.36 &amp; 0.07 $\pm$ 3.91 &amp; 47.08 $\pm$ 4.97 &amp; "-"</t>
         </is>
       </c>
     </row>
